--- a/Assets/GameData/DataTables/ExcelData.xlsx
+++ b/Assets/GameData/DataTables/ExcelData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24108" windowHeight="10631"/>
+    <workbookView windowWidth="16931" windowHeight="10631" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GameSetting" sheetId="1" r:id="rId1"/>
+    <sheet name="Setting" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +106,18 @@
   </si>
   <si>
     <t>60|70|80|92</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Setting ID</t>
+  </si>
+  <si>
+    <t>SettingStr</t>
+  </si>
+  <si>
+    <t>B_Star</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1050,13 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="47.6203703703704" customWidth="1"/>
+    <col min="1" max="1" width="24.6944444444444" customWidth="1"/>
     <col min="2" max="2" width="27.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="29.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="33.1759259259259" customWidth="1"/>
@@ -1189,4 +1202,86 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>